--- a/example/game_06_abyssal_nightfall/synergy_cards.xlsx
+++ b/example/game_06_abyssal_nightfall/synergy_cards.xlsx
@@ -486,7 +486,7 @@
         <v>sanity:&lt;40</v>
       </c>
       <c r="I6" t="str">
-        <v>icons/synergy/leviathan.png</v>
+        <v>ui/assets/icons/synergy/leviathan.png</v>
       </c>
     </row>
     <row r="7">
@@ -515,7 +515,7 @@
         <v>after:reload</v>
       </c>
       <c r="I7" t="str">
-        <v>icons/synergy/singularity.png</v>
+        <v>ui/assets/icons/synergy/singularity.png</v>
       </c>
     </row>
     <row r="8">
@@ -544,7 +544,7 @@
         <v>killstreak:15@20s</v>
       </c>
       <c r="I8" t="str">
-        <v>icons/synergy/seraph_tide.png</v>
+        <v>ui/assets/icons/synergy/seraph_tide.png</v>
       </c>
     </row>
     <row r="9">
@@ -573,7 +573,7 @@
         <v>after:maelstrom</v>
       </c>
       <c r="I9" t="str">
-        <v>icons/synergy/undertow_battery.png</v>
+        <v>ui/assets/icons/synergy/undertow_battery.png</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/synergy_cards.xlsx
+++ b/example/game_06_abyssal_nightfall/synergy_cards.xlsx
@@ -471,22 +471,22 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Leviathan Lance</v>
+        <v>深渊利维坦矛</v>
       </c>
       <c r="E6" t="str">
         <v>MYTHIC</v>
       </c>
       <c r="F6" t="str">
-        <v>weapon:chorus-ray|relic:maelstrom-core</v>
+        <v>weapon:20020002|relic:30050003</v>
       </c>
       <c r="G6" t="str">
-        <v>beamDamage:+28|pullStrength:+20</v>
+        <v>光束伤害:+28|牵引力:+20</v>
       </c>
       <c r="H6" t="str">
         <v>sanity:&lt;40</v>
       </c>
       <c r="I6" t="str">
-        <v>ui/assets/icons/synergy/leviathan.png</v>
+        <v>icons/synergy/leviathan.png</v>
       </c>
     </row>
     <row r="7">
@@ -500,22 +500,22 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Singularity Waltz</v>
+        <v>奇点圆舞</v>
       </c>
       <c r="E7" t="str">
         <v>EPIC</v>
       </c>
       <c r="F7" t="str">
-        <v>weapon:runic-revolver|relic:void-orbit</v>
+        <v>weapon:20020001|relic:30050001</v>
       </c>
       <c r="G7" t="str">
-        <v>projectileSpeed:+18|orbitals:+1|crit:+6</v>
+        <v>弹速:+18|环轨:+1|暴击:+6</v>
       </c>
       <c r="H7" t="str">
         <v>after:reload</v>
       </c>
       <c r="I7" t="str">
-        <v>ui/assets/icons/synergy/singularity.png</v>
+        <v>icons/synergy/singularity.png</v>
       </c>
     </row>
     <row r="8">
@@ -529,22 +529,22 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Seraph Tide</v>
+        <v>炽天潮汐</v>
       </c>
       <c r="E8" t="str">
         <v>RARE</v>
       </c>
       <c r="F8" t="str">
-        <v>relic:sigil-halo|skill:70040002</v>
+        <v>relic:30050002|skill:70040002</v>
       </c>
       <c r="G8" t="str">
-        <v>slow:+12%|shield:+30|duration:+2</v>
+        <v>减速:+12%|护盾:+30|持续:+2</v>
       </c>
       <c r="H8" t="str">
         <v>killstreak:15@20s</v>
       </c>
       <c r="I8" t="str">
-        <v>ui/assets/icons/synergy/seraph_tide.png</v>
+        <v>icons/synergy/seraph_tide.png</v>
       </c>
     </row>
     <row r="9">
@@ -558,22 +558,22 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>Undertow Battery</v>
+        <v>逆潮蓄能阵</v>
       </c>
       <c r="E9" t="str">
         <v>EPIC</v>
       </c>
       <c r="F9" t="str">
-        <v>weapon:tidebreaker|skill:70030002</v>
+        <v>weapon:20020003|skill:70030002</v>
       </c>
       <c r="G9" t="str">
-        <v>burstDamage:+24|shardCount:+1</v>
+        <v>爆发伤害:+24|碎片:+1</v>
       </c>
       <c r="H9" t="str">
         <v>after:maelstrom</v>
       </c>
       <c r="I9" t="str">
-        <v>ui/assets/icons/synergy/undertow_battery.png</v>
+        <v>icons/synergy/undertow_battery.png</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/synergy_cards.xlsx
+++ b/example/game_06_abyssal_nightfall/synergy_cards.xlsx
@@ -480,7 +480,7 @@
         <v>weapon:20020002|relic:30050003</v>
       </c>
       <c r="G6" t="str">
-        <v>光束伤害:+28|牵引力:+20</v>
+        <v>damage:+24|pullStrength:+20</v>
       </c>
       <c r="H6" t="str">
         <v>sanity:&lt;40</v>
@@ -509,7 +509,7 @@
         <v>weapon:20020001|relic:30050001</v>
       </c>
       <c r="G7" t="str">
-        <v>弹速:+18|环轨:+1|暴击:+6</v>
+        <v>projectileSpeed:+18|split:+1|crit:+6</v>
       </c>
       <c r="H7" t="str">
         <v>after:reload</v>
@@ -535,10 +535,10 @@
         <v>RARE</v>
       </c>
       <c r="F8" t="str">
-        <v>relic:30050002|skill:70040002</v>
+        <v>relic:30050002|skill:70030002</v>
       </c>
       <c r="G8" t="str">
-        <v>减速:+12%|护盾:+30|持续:+2</v>
+        <v>slow:+12%|shield:+30|duration:+2</v>
       </c>
       <c r="H8" t="str">
         <v>killstreak:15@20s</v>
@@ -564,10 +564,10 @@
         <v>EPIC</v>
       </c>
       <c r="F9" t="str">
-        <v>weapon:20020003|skill:70030002</v>
+        <v>weapon:20020003|skill:70040002</v>
       </c>
       <c r="G9" t="str">
-        <v>爆发伤害:+24|碎片:+1</v>
+        <v>damageMultiplier:+12|ricochet:+1</v>
       </c>
       <c r="H9" t="str">
         <v>after:maelstrom</v>
